--- a/PK/tbemr_basicRegister_codebook_v1.2.xlsx
+++ b/PK/tbemr_basicRegister_codebook_v1.2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristina.reinhardt\OneDrive - MSF\EMR\bahmni-mart\5_queryLibrary\mart-tbemr-query-library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/kristina_reinhardt_newyork_msf_org/Documents/github/mart-tbemr-query-library/PK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFEEED4-8CE3-4DCD-8B93-D647C00B18BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="query_changelog" sheetId="2" r:id="rId1"/>
     <sheet name="basic_register_description" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">basic_register_description!$A$1:$J$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">basic_register_description!$A$1:$J$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="285">
   <si>
     <t>Column</t>
   </si>
@@ -458,41 +458,6 @@
     <t>Tuberculosis Treatment End Date</t>
   </si>
   <si>
-    <t>Next visit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Baseline &gt; Next Visit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> Follow-up Assessment &gt; Next Visit</t>
-    </r>
-  </si>
-  <si>
-    <t>followup_template; baseline_template</t>
-  </si>
-  <si>
-    <t>latest follow-up assessment form date</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -601,9 +566,6 @@
     <t>patient_program_medication_view; treatment_initiation_template</t>
   </si>
   <si>
-    <t>This value is going to be continuosly changing for patients who are being seen and having new follow-up appointments assigned</t>
-  </si>
-  <si>
     <t>(facility names defined for the implementation)</t>
   </si>
   <si>
@@ -700,9 +662,6 @@
     <t>patient program id</t>
   </si>
   <si>
-    <t xml:space="preserve">The next visit date from the most recent follow-up form.If there is any follow-up form completed, the next visit date if from the most recent form, even if null. If there is follow-up form completed, then the next visit date is from the baseline template form. </t>
-  </si>
-  <si>
     <t>Last reported treatment facility from treatment initiation, hospital admission notification and follow-up forms. If no recent facility is mentioned, the registration facility from program enrollment is displayed.</t>
   </si>
   <si>
@@ -916,9 +875,6 @@
     <t>03_EMR_ID</t>
   </si>
   <si>
-    <t>64_Next_Visit</t>
-  </si>
-  <si>
     <t>61_Reconversion_after_Initial_Culture_Conversion</t>
   </si>
   <si>
@@ -941,6 +897,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Revised query to accommodate metadata changes made for the Pakistan implementation, including removing last visit date (not collected) and changes to last facility (concept name changes, other not collected).</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB7678-3E18-497F-ABA7-7D2FE6D40AA7}">
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1635,13 +1594,13 @@
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1649,10 +1608,10 @@
         <v>43521</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -1660,10 +1619,10 @@
         <v>43521</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1671,10 +1630,10 @@
         <v>43521</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1682,10 +1641,10 @@
         <v>43521</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1693,10 +1652,10 @@
         <v>43521</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1704,10 +1663,10 @@
         <v>43521</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1715,10 +1674,10 @@
         <v>43782</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1726,10 +1685,10 @@
         <v>43782</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1737,10 +1696,10 @@
         <v>43784</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1748,10 +1707,10 @@
         <v>43832</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1759,10 +1718,10 @@
         <v>44074</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1770,16 +1729,22 @@
         <v>44169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <v>44739</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
@@ -1817,12 +1782,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755CC844-63E2-4B85-BD9F-12E3C1EFFCA3}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1836,7 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="42" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -1900,7 +1865,7 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1927,12 +1892,12 @@
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -1961,7 +1926,7 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -1993,13 +1958,13 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2022,7 +1987,7 @@
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
@@ -2051,10 +2016,10 @@
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
@@ -2080,10 +2045,10 @@
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -2109,19 +2074,19 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
@@ -2130,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -2138,10 +2103,10 @@
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>46</v>
@@ -2167,10 +2132,10 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>49</v>
@@ -2196,10 +2161,10 @@
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>52</v>
@@ -2225,10 +2190,10 @@
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -2254,10 +2219,10 @@
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>60</v>
@@ -2272,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -2281,24 +2246,24 @@
         <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -2307,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -2315,7 +2280,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>63</v>
@@ -2324,13 +2289,13 @@
         <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
@@ -2344,7 +2309,7 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>67</v>
@@ -2353,13 +2318,13 @@
         <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
@@ -2373,16 +2338,16 @@
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>65</v>
@@ -2397,21 +2362,21 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>65</v>
@@ -2426,24 +2391,24 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -2452,18 +2417,18 @@
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>69</v>
@@ -2472,7 +2437,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -2484,7 +2449,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>71</v>
@@ -2495,7 +2460,7 @@
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>73</v>
@@ -2504,19 +2469,19 @@
         <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>71</v>
@@ -2527,7 +2492,7 @@
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>74</v>
@@ -2536,19 +2501,19 @@
         <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>71</v>
@@ -2559,7 +2524,7 @@
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>75</v>
@@ -2568,19 +2533,19 @@
         <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>71</v>
@@ -2591,7 +2556,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>76</v>
@@ -2600,19 +2565,19 @@
         <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>71</v>
@@ -2623,7 +2588,7 @@
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>77</v>
@@ -2632,19 +2597,19 @@
         <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>71</v>
@@ -2655,7 +2620,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>78</v>
@@ -2664,19 +2629,19 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>71</v>
@@ -2687,7 +2652,7 @@
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>79</v>
@@ -2696,19 +2661,19 @@
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>71</v>
@@ -2719,7 +2684,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>80</v>
@@ -2728,19 +2693,19 @@
         <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>71</v>
@@ -2751,7 +2716,7 @@
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>81</v>
@@ -2760,19 +2725,19 @@
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>71</v>
@@ -2783,7 +2748,7 @@
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>82</v>
@@ -2792,19 +2757,19 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>71</v>
@@ -2815,7 +2780,7 @@
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>83</v>
@@ -2824,19 +2789,19 @@
         <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>71</v>
@@ -2847,7 +2812,7 @@
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>84</v>
@@ -2856,19 +2821,19 @@
         <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>71</v>
@@ -2879,7 +2844,7 @@
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -2888,19 +2853,19 @@
         <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>71</v>
@@ -2911,7 +2876,7 @@
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -2920,19 +2885,19 @@
         <v>70</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>71</v>
@@ -2943,7 +2908,7 @@
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -2952,19 +2917,19 @@
         <v>70</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>71</v>
@@ -2975,7 +2940,7 @@
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -2984,19 +2949,19 @@
         <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>71</v>
@@ -3007,7 +2972,7 @@
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -3016,19 +2981,19 @@
         <v>70</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>71</v>
@@ -3039,7 +3004,7 @@
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>90</v>
@@ -3048,19 +3013,19 @@
         <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>71</v>
@@ -3071,7 +3036,7 @@
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -3080,19 +3045,19 @@
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>71</v>
@@ -3103,7 +3068,7 @@
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
@@ -3112,19 +3077,19 @@
         <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>71</v>
@@ -3135,7 +3100,7 @@
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
@@ -3144,19 +3109,19 @@
         <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>71</v>
@@ -3167,7 +3132,7 @@
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>94</v>
@@ -3176,19 +3141,19 @@
         <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>71</v>
@@ -3199,28 +3164,28 @@
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>71</v>
@@ -3231,28 +3196,28 @@
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>71</v>
@@ -3263,10 +3228,10 @@
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>95</v>
@@ -3278,7 +3243,7 @@
         <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>15</v>
@@ -3292,7 +3257,7 @@
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>98</v>
@@ -3307,7 +3272,7 @@
         <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>15</v>
@@ -3324,7 +3289,7 @@
     </row>
     <row r="49" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
@@ -3339,13 +3304,13 @@
         <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>103</v>
@@ -3356,10 +3321,10 @@
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>109</v>
@@ -3371,7 +3336,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>15</v>
@@ -3385,7 +3350,7 @@
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
@@ -3400,7 +3365,7 @@
         <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>15</v>
@@ -3417,7 +3382,7 @@
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -3432,13 +3397,13 @@
         <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>103</v>
@@ -3449,10 +3414,10 @@
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>120</v>
@@ -3464,7 +3429,7 @@
         <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>15</v>
@@ -3478,7 +3443,7 @@
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>122</v>
@@ -3493,7 +3458,7 @@
         <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>15</v>
@@ -3510,7 +3475,7 @@
     </row>
     <row r="55" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -3525,13 +3490,13 @@
         <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>103</v>
@@ -3542,10 +3507,10 @@
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>128</v>
@@ -3557,13 +3522,13 @@
         <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
@@ -3571,109 +3536,109 @@
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>58</v>
@@ -3682,73 +3647,73 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>130</v>
@@ -3760,7 +3725,7 @@
         <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>15</v>
@@ -3774,7 +3739,7 @@
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>134</v>
@@ -3789,7 +3754,7 @@
         <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>58</v>
@@ -3801,45 +3766,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
@@ -3850,55 +3812,41 @@
         <v>16</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J65" xr:uid="{F3A09C70-F2B3-4544-AF29-19179100C3E5}"/>
+  <autoFilter ref="A1:J64" xr:uid="{F3A09C70-F2B3-4544-AF29-19179100C3E5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070CE95ABCCDF824688903FE290C52AA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407cfcb431a1568ce500e5bc0124fa9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="500fc99d-b194-414e-9bc2-944fb4fc9ef3" xmlns:ns4="95809629-8651-4b51-a536-1331494a3072" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58b948c687cb66ba8472d9e221e8c138" ns3:_="" ns4:_="">
     <xsd:import namespace="500fc99d-b194-414e-9bc2-944fb4fc9ef3"/>
@@ -4107,22 +4055,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EE0199-3B27-4E13-8063-710C7C97DB35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4139,21 +4089,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>